--- a/nr-test-new-workflow/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/nr-test-new-workflow/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T13:56:33+00:00</t>
+    <t>2024-11-13T14:23:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-new-workflow/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/nr-test-new-workflow/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T14:23:56+00:00</t>
+    <t>2024-11-13T14:30:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
